--- a/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A4C793-4599-487B-A330-E1D1B0A12A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67890844-60F7-402D-B97B-54A2DA861B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -108,15 +108,6 @@
   </si>
   <si>
     <t>UZI</t>
-  </si>
-  <si>
-    <t>Init Level</t>
-  </si>
-  <si>
-    <t>Max Level</t>
-  </si>
-  <si>
-    <t>Damage</t>
   </si>
 </sst>
 </file>
@@ -434,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +439,7 @@
     <col min="6" max="6" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,17 +458,8 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
@@ -497,17 +479,8 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -527,17 +500,8 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -557,17 +521,8 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -587,17 +542,8 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -617,17 +563,8 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -647,17 +584,8 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -677,17 +605,8 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -707,17 +626,8 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -737,17 +647,8 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -767,17 +668,8 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -797,17 +689,8 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -827,17 +710,8 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -856,15 +730,6 @@
       </c>
       <c r="F14" t="s">
         <v>7</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A4C793-4599-487B-A330-E1D1B0A12A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0AF257-A278-4663-92D7-52332827B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Bite</t>
   </si>
 </sst>
 </file>
@@ -434,21 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="66.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
@@ -507,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -537,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -567,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -597,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -627,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -657,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -687,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -717,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -747,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -777,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -807,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -837,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -865,6 +871,30 @@
       </c>
       <c r="I14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f xml:space="preserve"> ROW()-2</f>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ROW() - 2</f>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67890844-60F7-402D-B97B-54A2DA861B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BF52A-1C4F-4A67-AB9C-EDBD89D26383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -108,19 +108,31 @@
   </si>
   <si>
     <t>UZI</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Bite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,21 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="66.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
@@ -480,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -501,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -522,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -543,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -564,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -585,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -606,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -627,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -648,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -669,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -690,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -711,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -729,6 +742,48 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>ROW()-2</f>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>ROW() - 2</f>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/WeaponsValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BF52A-1C4F-4A67-AB9C-EDBD89D26383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D948A-86F0-489D-B6C3-A76E252A0081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>Bite</t>
+  </si>
+  <si>
+    <t>Swoop Bite</t>
+  </si>
+  <si>
+    <t>Dives towards the player for a bite, then retreats upward. Main attack</t>
+  </si>
+  <si>
+    <t>The zombie swings its decaying arms in a wide arc. Main attack</t>
+  </si>
+  <si>
+    <t>The dog lunges and bites viciously at the player's legs and arms. Main attack</t>
+  </si>
+  <si>
+    <t>Gnaw</t>
+  </si>
+  <si>
+    <t>Gnaws at the player and increases attack speed by 5%.</t>
+  </si>
+  <si>
+    <t>Sweeping Claw</t>
+  </si>
+  <si>
+    <t>Swipes both front limbs across the ground. Main attack</t>
   </si>
 </sst>
 </file>
@@ -438,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -784,7 +808,70 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>ROW()-2</f>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f xml:space="preserve"> ROW()-2</f>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>ROW()-2</f>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
